--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H2">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I2">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J2">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N2">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q2">
-        <v>707.5941745250373</v>
+        <v>695.8975427994403</v>
       </c>
       <c r="R2">
-        <v>6368.347570725336</v>
+        <v>6263.077885194963</v>
       </c>
       <c r="S2">
-        <v>0.04652464738512972</v>
+        <v>0.04221973582333041</v>
       </c>
       <c r="T2">
-        <v>0.05268268454921197</v>
+        <v>0.04668025886526523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H3">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I3">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J3">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q3">
-        <v>295.0677669960066</v>
+        <v>259.3087910203466</v>
       </c>
       <c r="R3">
-        <v>2655.60990296406</v>
+        <v>2333.77911918312</v>
       </c>
       <c r="S3">
-        <v>0.01940084346146787</v>
+        <v>0.01573212718858738</v>
       </c>
       <c r="T3">
-        <v>0.02196875362876657</v>
+        <v>0.0173942293892498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H4">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I4">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J4">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N4">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q4">
-        <v>456.551187551963</v>
+        <v>485.5070525217747</v>
       </c>
       <c r="R4">
-        <v>4108.960687967667</v>
+        <v>4369.563472695972</v>
       </c>
       <c r="S4">
-        <v>0.030018453767479</v>
+        <v>0.02945545606523388</v>
       </c>
       <c r="T4">
-        <v>0.03399171878501258</v>
+        <v>0.03256743054653964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H5">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I5">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J5">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N5">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q5">
-        <v>449.3048306099157</v>
+        <v>239.6447942921247</v>
       </c>
       <c r="R5">
-        <v>2695.828983659494</v>
+        <v>1437.868765752748</v>
       </c>
       <c r="S5">
-        <v>0.02954200241486317</v>
+        <v>0.01453912290845065</v>
       </c>
       <c r="T5">
-        <v>0.02230146931640853</v>
+        <v>0.01071678932147406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H6">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I6">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J6">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N6">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q6">
-        <v>424.2752256576935</v>
+        <v>480.5008534335044</v>
       </c>
       <c r="R6">
-        <v>3818.477030919242</v>
+        <v>4324.507680901539</v>
       </c>
       <c r="S6">
-        <v>0.02789629420171559</v>
+        <v>0.02915173261460131</v>
       </c>
       <c r="T6">
-        <v>0.03158866859011868</v>
+        <v>0.03223161865614062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J7">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N7">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O7">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P7">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q7">
-        <v>1016.236089057822</v>
+        <v>1137.261134741657</v>
       </c>
       <c r="R7">
-        <v>9146.124801520395</v>
+        <v>10235.35021267492</v>
       </c>
       <c r="S7">
-        <v>0.06681799738556989</v>
+        <v>0.06899703148509571</v>
       </c>
       <c r="T7">
-        <v>0.07566207755072994</v>
+        <v>0.07628658085727121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J8">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P8">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q8">
         <v>423.77187989192</v>
@@ -948,10 +948,10 @@
         <v>3813.94691902728</v>
       </c>
       <c r="S8">
-        <v>0.02786319898257938</v>
+        <v>0.02571001579689347</v>
       </c>
       <c r="T8">
-        <v>0.03155119286299694</v>
+        <v>0.0284262838083854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J9">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N9">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O9">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P9">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q9">
-        <v>655.691934722244</v>
+        <v>793.4333253352521</v>
       </c>
       <c r="R9">
-        <v>5901.227412500196</v>
+        <v>7140.899928017269</v>
       </c>
       <c r="S9">
-        <v>0.04311205088241788</v>
+        <v>0.04813718015776251</v>
       </c>
       <c r="T9">
-        <v>0.04881839421815674</v>
+        <v>0.05322288230819655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J10">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N10">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O10">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P10">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q10">
-        <v>645.284826094412</v>
+        <v>391.636259549402</v>
       </c>
       <c r="R10">
-        <v>3871.708956566472</v>
+        <v>2349.817557296412</v>
       </c>
       <c r="S10">
-        <v>0.04242777863055314</v>
+        <v>0.02376036470900197</v>
       </c>
       <c r="T10">
-        <v>0.03202903411911582</v>
+        <v>0.01751376781055745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J11">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N11">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O11">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P11">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q11">
-        <v>609.3376846918106</v>
+        <v>785.2520122744734</v>
       </c>
       <c r="R11">
-        <v>5484.039162226296</v>
+        <v>7067.26811047026</v>
       </c>
       <c r="S11">
-        <v>0.04006423729786478</v>
+        <v>0.04764082422190948</v>
       </c>
       <c r="T11">
-        <v>0.04536716974544564</v>
+        <v>0.05267408627423067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H12">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I12">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J12">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N12">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O12">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P12">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q12">
-        <v>889.8740508426623</v>
+        <v>1293.596150237703</v>
       </c>
       <c r="R12">
-        <v>8008.86645758396</v>
+        <v>11642.36535213933</v>
       </c>
       <c r="S12">
-        <v>0.05850963436834645</v>
+        <v>0.07848179418109159</v>
       </c>
       <c r="T12">
-        <v>0.06625401338350699</v>
+        <v>0.08677341051857944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H13">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I13">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J13">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P13">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q13">
-        <v>371.0787320515801</v>
+        <v>482.0262081071733</v>
       </c>
       <c r="R13">
-        <v>3339.708588464221</v>
+        <v>4338.23587296456</v>
       </c>
       <c r="S13">
-        <v>0.02439859990708547</v>
+        <v>0.0292442750758092</v>
       </c>
       <c r="T13">
-        <v>0.02762801685968829</v>
+        <v>0.03233393824580575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H14">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I14">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J14">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N14">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O14">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P14">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q14">
-        <v>574.161107186331</v>
+        <v>902.5036236353374</v>
       </c>
       <c r="R14">
-        <v>5167.449964676979</v>
+        <v>8122.532612718037</v>
       </c>
       <c r="S14">
-        <v>0.03775136090122591</v>
+        <v>0.05475441746237618</v>
       </c>
       <c r="T14">
-        <v>0.04274815929713885</v>
+        <v>0.06053923198041698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H15">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I15">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J15">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N15">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O15">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P15">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q15">
-        <v>565.0480516553131</v>
+        <v>445.4730247698873</v>
       </c>
       <c r="R15">
-        <v>3390.288309931878</v>
+        <v>2672.838148619324</v>
       </c>
       <c r="S15">
-        <v>0.03715217324473297</v>
+        <v>0.02702661277771606</v>
       </c>
       <c r="T15">
-        <v>0.02804644180918648</v>
+        <v>0.0199213196721443</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H16">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I16">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J16">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N16">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O16">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P16">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q16">
-        <v>533.5706925253061</v>
+        <v>893.1976562053354</v>
       </c>
       <c r="R16">
-        <v>4802.136232727755</v>
+        <v>8038.778905848019</v>
       </c>
       <c r="S16">
-        <v>0.03508252218362625</v>
+        <v>0.05418982934083365</v>
       </c>
       <c r="T16">
-        <v>0.03972607108853557</v>
+        <v>0.05991499501749179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H17">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I17">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J17">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N17">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O17">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P17">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q17">
-        <v>779.2183757047042</v>
+        <v>968.7960450957163</v>
       </c>
       <c r="R17">
-        <v>4675.310254228225</v>
+        <v>5812.776270574298</v>
       </c>
       <c r="S17">
-        <v>0.05123397205751321</v>
+        <v>0.05877634360668607</v>
       </c>
       <c r="T17">
-        <v>0.03867689264095048</v>
+        <v>0.04332405025294248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H18">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I18">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J18">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P18">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q18">
-        <v>324.93515972736</v>
+        <v>360.99758333457</v>
       </c>
       <c r="R18">
-        <v>1949.61095836416</v>
+        <v>2165.98550000742</v>
       </c>
       <c r="S18">
-        <v>0.02136463848009155</v>
+        <v>0.02190153242952147</v>
       </c>
       <c r="T18">
-        <v>0.01612831868432197</v>
+        <v>0.01614362230394169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H19">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I19">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J19">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N19">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O19">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P19">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q19">
-        <v>502.764278732352</v>
+        <v>675.9002344756545</v>
       </c>
       <c r="R19">
-        <v>3016.585672394112</v>
+        <v>4055.401406853928</v>
       </c>
       <c r="S19">
-        <v>0.03305698609172776</v>
+        <v>0.04100650970499757</v>
       </c>
       <c r="T19">
-        <v>0.02495495568190396</v>
+        <v>0.03022590345267745</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H20">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I20">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J20">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N20">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O20">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P20">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q20">
-        <v>494.784429986496</v>
+        <v>333.6222858382732</v>
       </c>
       <c r="R20">
-        <v>1979.137719945984</v>
+        <v>1334.489143353093</v>
       </c>
       <c r="S20">
-        <v>0.03253230731050854</v>
+        <v>0.02024068761071482</v>
       </c>
       <c r="T20">
-        <v>0.01637258127346295</v>
+        <v>0.009946275586299735</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H21">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I21">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J21">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N21">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O21">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P21">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q21">
-        <v>467.221274695552</v>
+        <v>668.9308380065024</v>
       </c>
       <c r="R21">
-        <v>2803.327648173312</v>
+        <v>4013.585028039015</v>
       </c>
       <c r="S21">
-        <v>0.03072001697955222</v>
+        <v>0.04058368010770948</v>
       </c>
       <c r="T21">
-        <v>0.02319076095276279</v>
+        <v>0.02991423570342234</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H22">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I22">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J22">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N22">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O22">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P22">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q22">
-        <v>1220.350455754775</v>
+        <v>1212.666002925976</v>
       </c>
       <c r="R22">
-        <v>10983.15410179297</v>
+        <v>10913.99402633378</v>
       </c>
       <c r="S22">
-        <v>0.08023861230681213</v>
+        <v>0.07357180495207503</v>
       </c>
       <c r="T22">
-        <v>0.09085905511188037</v>
+        <v>0.0813446800027077</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H23">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I23">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J23">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P23">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q23">
-        <v>508.8878581763666</v>
+        <v>451.8696155546533</v>
       </c>
       <c r="R23">
-        <v>4579.9907235873</v>
+        <v>4066.82653999188</v>
       </c>
       <c r="S23">
-        <v>0.03345961429956857</v>
+        <v>0.02741469055712072</v>
       </c>
       <c r="T23">
-        <v>0.03788835390176185</v>
+        <v>0.0303110577781107</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H24">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I24">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J24">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N24">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O24">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P24">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q24">
-        <v>787.3898201301649</v>
+        <v>846.0410628919753</v>
       </c>
       <c r="R24">
-        <v>7086.508381171485</v>
+        <v>7614.369566027779</v>
       </c>
       <c r="S24">
-        <v>0.05177124834413178</v>
+        <v>0.05132886376821618</v>
       </c>
       <c r="T24">
-        <v>0.05862372953963665</v>
+        <v>0.05675176789325678</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H25">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I25">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J25">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N25">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O25">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P25">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q25">
-        <v>774.8924094459616</v>
+        <v>417.6032776997503</v>
       </c>
       <c r="R25">
-        <v>4649.35445667577</v>
+        <v>2505.619666198502</v>
       </c>
       <c r="S25">
-        <v>0.050949537755997</v>
+        <v>0.02533576996480598</v>
       </c>
       <c r="T25">
-        <v>0.03846217114852362</v>
+        <v>0.01867499922243177</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H26">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I26">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J26">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N26">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O26">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P26">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q26">
-        <v>731.7251662570121</v>
+        <v>837.3172967269121</v>
       </c>
       <c r="R26">
-        <v>6585.52649631311</v>
+        <v>7535.855670542209</v>
       </c>
       <c r="S26">
-        <v>0.04811127135943984</v>
+        <v>0.05079959748945936</v>
       </c>
       <c r="T26">
-        <v>0.05447931526077573</v>
+        <v>0.05616658453246057</v>
       </c>
     </row>
   </sheetData>
